--- a/input/resources-spreadsheet/server.xlsx
+++ b/input/resources-spreadsheet/server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Argo-PL/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5326BD5D-7A70-ED47-A5D8-F29675C8F53A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16847BE-F81D-5142-9498-957153834660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32600" yWindow="-21140" windowWidth="30520" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32600" yWindow="-21140" windowWidth="30520" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="168">
   <si>
     <t>Element</t>
   </si>
@@ -539,9 +539,6 @@
   </si>
   <si>
     <t>server</t>
-  </si>
-  <si>
-    <t>Server</t>
   </si>
   <si>
     <t>This CapabilityStatement outlines the conformance requirements and expectations for Argonaut User Facing Patient List **EHR Server**.  It identifies the specific profiles and RESTful transactions for requesting user facing patient list data from an EHR using the Argonaut User Facing Patient List API.  This includes the following interactions:
@@ -605,8 +602,8 @@
     <t>Required resource type for discovery and fetching of user facing lists. For getting additional data about Group members. The Server **MAY** supply one or more of these extensions:
 1. [Argonaut Patient List Member Appointment Extension](https://argonautproject.github.io/patient-lists/StructureDefinition-patientlist-appointment.html#profile)
 1. [Argonaut Patient List Member Encounter Extension](https://argonautproject.github.io/patient-lists/StructureDefinition-patientlist-encounter.html#profile)
-1. [Argonaut User Facing Patient List Questionnaire Extension]](https://argonautproject.github.io/patient-lists/StructureDefinition-patientlist-questionnaire.html#profile)
-1. [Argonaut User Facing Patient List Member QuestionnaireResponse Extension]](https://argonautproject.github.io/patient-lists/StructureDefinition-patientlist-questionnaireresponse.html#profile)</t>
+1. [Argonaut User Facing Patient List Questionnaire Extension](https://argonautproject.github.io/patient-lists/StructureDefinition-patientlist-questionnaire.html#profile)
+1. [Argonaut User Facing Patient List Member QuestionnaireResponse Extension](https://argonautproject.github.io/patient-lists/StructureDefinition-patientlist-questionnaireresponse.html#profile)</t>
   </si>
 </sst>
 </file>
@@ -1378,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1401,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1425,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1457,7 +1454,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -1645,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1753,7 +1750,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W2" s="17" t="s">
         <v>107</v>
@@ -1767,7 +1764,7 @@
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="96" x14ac:dyDescent="0.2">
@@ -1778,7 +1775,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="128" x14ac:dyDescent="0.2">
@@ -1789,7 +1786,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="128" x14ac:dyDescent="0.2">
@@ -1954,7 +1951,7 @@
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>
@@ -1981,7 +1978,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>54</v>
@@ -2184,7 +2181,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2196,7 +2193,7 @@
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2584,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>111</v>
@@ -2615,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>111</v>
@@ -2646,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>111</v>
@@ -2677,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>111</v>
